--- a/API 관련 요구사항 및 세부사항/API 명세서.xlsx
+++ b/API 관련 요구사항 및 세부사항/API 명세서.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChoeJiSang\estate_project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChoeJiSang\estate_project\API 관련 요구사항 및 세부사항\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,6 +14,9 @@
   <sheets>
     <sheet name="모듈 A" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'모듈 A'!$A$1:$L$230</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1329,12 +1332,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1392,9 +1404,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1437,6 +1446,51 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1496,57 +1550,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1830,414 +1833,414 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:L229"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A207" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B226" sqref="B226:K229"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q244" sqref="Q244"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="2" spans="2:12" ht="54" x14ac:dyDescent="0.3">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="77" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="61"/>
-      <c r="H2" s="61"/>
-      <c r="I2" s="61"/>
-      <c r="J2" s="61"/>
-      <c r="K2" s="62"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="79"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="31.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
-      <c r="J3" s="64"/>
-      <c r="K3" s="65"/>
+      <c r="C3" s="81"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="81"/>
+      <c r="K3" s="82"/>
       <c r="L3" s="2"/>
     </row>
     <row r="4" spans="2:12" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="71" t="s">
+      <c r="B4" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="72"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
+      <c r="C4" s="89"/>
+      <c r="D4" s="89"/>
+      <c r="E4" s="89"/>
+      <c r="F4" s="89"/>
+      <c r="G4" s="89"/>
+      <c r="H4" s="89"/>
+      <c r="I4" s="89"/>
+      <c r="J4" s="89"/>
+      <c r="K4" s="90"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="74"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="76"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="92"/>
+      <c r="J5" s="92"/>
+      <c r="K5" s="93"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="74"/>
-      <c r="C6" s="75"/>
-      <c r="D6" s="75"/>
-      <c r="E6" s="75"/>
-      <c r="F6" s="75"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="75"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="76"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="92"/>
+      <c r="E6" s="92"/>
+      <c r="F6" s="92"/>
+      <c r="G6" s="92"/>
+      <c r="H6" s="92"/>
+      <c r="I6" s="92"/>
+      <c r="J6" s="92"/>
+      <c r="K6" s="93"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="74"/>
-      <c r="C7" s="75"/>
-      <c r="D7" s="75"/>
-      <c r="E7" s="75"/>
-      <c r="F7" s="75"/>
-      <c r="G7" s="75"/>
-      <c r="H7" s="75"/>
-      <c r="I7" s="75"/>
-      <c r="J7" s="75"/>
-      <c r="K7" s="76"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="92"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="92"/>
+      <c r="G7" s="92"/>
+      <c r="H7" s="92"/>
+      <c r="I7" s="92"/>
+      <c r="J7" s="92"/>
+      <c r="K7" s="93"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="74"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-      <c r="F8" s="75"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="75"/>
-      <c r="I8" s="75"/>
-      <c r="J8" s="75"/>
-      <c r="K8" s="76"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="92"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="92"/>
+      <c r="H8" s="92"/>
+      <c r="I8" s="92"/>
+      <c r="J8" s="92"/>
+      <c r="K8" s="93"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="74"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="76"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="93"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="76"/>
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="92"/>
+      <c r="H10" s="92"/>
+      <c r="I10" s="92"/>
+      <c r="J10" s="92"/>
+      <c r="K10" s="93"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
-      <c r="F11" s="75"/>
-      <c r="G11" s="75"/>
-      <c r="H11" s="75"/>
-      <c r="I11" s="75"/>
-      <c r="J11" s="75"/>
-      <c r="K11" s="76"/>
+      <c r="B11" s="91"/>
+      <c r="C11" s="92"/>
+      <c r="D11" s="92"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="92"/>
+      <c r="H11" s="92"/>
+      <c r="I11" s="92"/>
+      <c r="J11" s="92"/>
+      <c r="K11" s="93"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="74"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="75"/>
-      <c r="E12" s="75"/>
-      <c r="F12" s="75"/>
-      <c r="G12" s="75"/>
-      <c r="H12" s="75"/>
-      <c r="I12" s="75"/>
-      <c r="J12" s="75"/>
-      <c r="K12" s="76"/>
+      <c r="B12" s="91"/>
+      <c r="C12" s="92"/>
+      <c r="D12" s="92"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="92"/>
+      <c r="G12" s="92"/>
+      <c r="H12" s="92"/>
+      <c r="I12" s="92"/>
+      <c r="J12" s="92"/>
+      <c r="K12" s="93"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="74"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-      <c r="J13" s="75"/>
-      <c r="K13" s="76"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
+      <c r="D13" s="92"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="92"/>
+      <c r="H13" s="92"/>
+      <c r="I13" s="92"/>
+      <c r="J13" s="92"/>
+      <c r="K13" s="93"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="74"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-      <c r="J14" s="75"/>
-      <c r="K14" s="76"/>
+      <c r="B14" s="91"/>
+      <c r="C14" s="92"/>
+      <c r="D14" s="92"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="92"/>
+      <c r="G14" s="92"/>
+      <c r="H14" s="92"/>
+      <c r="I14" s="92"/>
+      <c r="J14" s="92"/>
+      <c r="K14" s="93"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="74"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="75"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="75"/>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
-      <c r="I15" s="75"/>
-      <c r="J15" s="75"/>
-      <c r="K15" s="76"/>
+      <c r="B15" s="91"/>
+      <c r="C15" s="92"/>
+      <c r="D15" s="92"/>
+      <c r="E15" s="92"/>
+      <c r="F15" s="92"/>
+      <c r="G15" s="92"/>
+      <c r="H15" s="92"/>
+      <c r="I15" s="92"/>
+      <c r="J15" s="92"/>
+      <c r="K15" s="93"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="74"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
-      <c r="F16" s="75"/>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
-      <c r="I16" s="75"/>
-      <c r="J16" s="75"/>
-      <c r="K16" s="76"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="92"/>
+      <c r="G16" s="92"/>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="93"/>
       <c r="L16" s="3"/>
     </row>
     <row r="17" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="74"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="75"/>
-      <c r="E17" s="75"/>
-      <c r="F17" s="75"/>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
-      <c r="I17" s="75"/>
-      <c r="J17" s="75"/>
-      <c r="K17" s="76"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="92"/>
+      <c r="H17" s="92"/>
+      <c r="I17" s="92"/>
+      <c r="J17" s="92"/>
+      <c r="K17" s="93"/>
       <c r="L17" s="3"/>
     </row>
     <row r="18" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="74"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
-      <c r="I18" s="75"/>
-      <c r="J18" s="75"/>
-      <c r="K18" s="76"/>
+      <c r="B18" s="91"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="92"/>
+      <c r="H18" s="92"/>
+      <c r="I18" s="92"/>
+      <c r="J18" s="92"/>
+      <c r="K18" s="93"/>
       <c r="L18" s="3"/>
     </row>
     <row r="19" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="74"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="75"/>
-      <c r="E19" s="75"/>
-      <c r="F19" s="75"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="75"/>
-      <c r="J19" s="75"/>
-      <c r="K19" s="76"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="92"/>
+      <c r="H19" s="92"/>
+      <c r="I19" s="92"/>
+      <c r="J19" s="92"/>
+      <c r="K19" s="93"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="74"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="75"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="75"/>
-      <c r="J20" s="75"/>
-      <c r="K20" s="76"/>
+      <c r="B20" s="91"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="92"/>
+      <c r="H20" s="92"/>
+      <c r="I20" s="92"/>
+      <c r="J20" s="92"/>
+      <c r="K20" s="93"/>
       <c r="L20" s="3"/>
     </row>
     <row r="21" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="74"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="75"/>
-      <c r="E21" s="75"/>
-      <c r="F21" s="75"/>
-      <c r="G21" s="75"/>
-      <c r="H21" s="75"/>
-      <c r="I21" s="75"/>
-      <c r="J21" s="75"/>
-      <c r="K21" s="76"/>
+      <c r="B21" s="91"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="92"/>
+      <c r="I21" s="92"/>
+      <c r="J21" s="92"/>
+      <c r="K21" s="93"/>
       <c r="L21" s="3"/>
     </row>
     <row r="22" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="74"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="75"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="75"/>
-      <c r="H22" s="75"/>
-      <c r="I22" s="75"/>
-      <c r="J22" s="75"/>
-      <c r="K22" s="76"/>
+      <c r="B22" s="91"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="92"/>
+      <c r="I22" s="92"/>
+      <c r="J22" s="92"/>
+      <c r="K22" s="93"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="74"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="75"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="75"/>
-      <c r="J23" s="75"/>
-      <c r="K23" s="76"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="93"/>
       <c r="L23" s="3"/>
     </row>
     <row r="24" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="74"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="75"/>
-      <c r="E24" s="75"/>
-      <c r="F24" s="75"/>
-      <c r="G24" s="75"/>
-      <c r="H24" s="75"/>
-      <c r="I24" s="75"/>
-      <c r="J24" s="75"/>
-      <c r="K24" s="76"/>
+      <c r="B24" s="91"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+      <c r="K24" s="93"/>
       <c r="L24" s="3"/>
     </row>
     <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="75"/>
-      <c r="F25" s="75"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="75"/>
-      <c r="I25" s="75"/>
-      <c r="J25" s="75"/>
-      <c r="K25" s="76"/>
+      <c r="B25" s="91"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="93"/>
       <c r="L25" s="3"/>
     </row>
     <row r="26" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="75"/>
-      <c r="F26" s="75"/>
-      <c r="G26" s="75"/>
-      <c r="H26" s="75"/>
-      <c r="I26" s="75"/>
-      <c r="J26" s="75"/>
-      <c r="K26" s="76"/>
+      <c r="B26" s="91"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="92"/>
+      <c r="I26" s="92"/>
+      <c r="J26" s="92"/>
+      <c r="K26" s="93"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="75"/>
-      <c r="E27" s="75"/>
-      <c r="F27" s="75"/>
-      <c r="G27" s="75"/>
-      <c r="H27" s="75"/>
-      <c r="I27" s="75"/>
-      <c r="J27" s="75"/>
-      <c r="K27" s="76"/>
+      <c r="B27" s="91"/>
+      <c r="C27" s="92"/>
+      <c r="D27" s="92"/>
+      <c r="E27" s="92"/>
+      <c r="F27" s="92"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="92"/>
+      <c r="I27" s="92"/>
+      <c r="J27" s="92"/>
+      <c r="K27" s="93"/>
       <c r="L27" s="3"/>
     </row>
     <row r="28" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="78"/>
-      <c r="E28" s="78"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="78"/>
-      <c r="H28" s="78"/>
-      <c r="I28" s="78"/>
-      <c r="J28" s="78"/>
-      <c r="K28" s="79"/>
+      <c r="B28" s="94"/>
+      <c r="C28" s="95"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="95"/>
+      <c r="F28" s="95"/>
+      <c r="G28" s="95"/>
+      <c r="H28" s="95"/>
+      <c r="I28" s="95"/>
+      <c r="J28" s="95"/>
+      <c r="K28" s="96"/>
       <c r="L28" s="3"/>
     </row>
     <row r="29" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B29" s="66" t="s">
+      <c r="B29" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="69" t="s">
+      <c r="C29" s="84"/>
+      <c r="D29" s="85"/>
+      <c r="E29" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="69"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="69"/>
-      <c r="J29" s="69"/>
-      <c r="K29" s="70"/>
+      <c r="F29" s="86"/>
+      <c r="G29" s="86"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
+      <c r="J29" s="86"/>
+      <c r="K29" s="87"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="2:12" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="48"/>
+      <c r="C31" s="49"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
+      <c r="G31" s="49"/>
+      <c r="H31" s="49"/>
+      <c r="I31" s="49"/>
+      <c r="J31" s="49"/>
+      <c r="K31" s="50"/>
     </row>
     <row r="32" spans="2:12" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B32" s="49" t="s">
+      <c r="B32" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="50"/>
-      <c r="F32" s="50"/>
-      <c r="G32" s="50"/>
-      <c r="H32" s="50"/>
-      <c r="I32" s="50"/>
-      <c r="J32" s="50"/>
-      <c r="K32" s="51"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="53"/>
     </row>
     <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B33" s="14" t="s">
@@ -2290,52 +2293,52 @@
       <c r="K36" s="20"/>
     </row>
     <row r="37" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B37" s="33" t="s">
+      <c r="B37" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C37" s="34"/>
-      <c r="D37" s="52" t="s">
+      <c r="C37" s="37"/>
+      <c r="D37" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E37" s="52"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="54" t="s">
+      <c r="E37" s="54"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H37" s="55"/>
-      <c r="I37" s="56" t="s">
+      <c r="H37" s="57"/>
+      <c r="I37" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="56"/>
-      <c r="K37" s="57"/>
+      <c r="J37" s="58"/>
+      <c r="K37" s="59"/>
     </row>
     <row r="38" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="34"/>
-      <c r="H38" s="34"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="34"/>
-      <c r="K38" s="35"/>
+      <c r="C38" s="37"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="37"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="37"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="37"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="38"/>
     </row>
     <row r="39" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B39" s="36" t="s">
+      <c r="B39" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C39" s="58"/>
-      <c r="D39" s="58"/>
-      <c r="E39" s="58"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="58"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-      <c r="K39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="60"/>
+      <c r="J39" s="60"/>
+      <c r="K39" s="61"/>
     </row>
     <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B40" s="5" t="s">
@@ -2359,55 +2362,55 @@
       <c r="B41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="26"/>
-      <c r="G41" s="26"/>
-      <c r="H41" s="26"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="26"/>
-      <c r="K41" s="27"/>
+      <c r="C41" s="29"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="29"/>
+      <c r="I41" s="29"/>
+      <c r="J41" s="29"/>
+      <c r="K41" s="30"/>
     </row>
     <row r="42" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B42" s="39" t="s">
+      <c r="B42" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="40"/>
-      <c r="D42" s="41" t="s">
+      <c r="C42" s="43"/>
+      <c r="D42" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E42" s="40"/>
-      <c r="F42" s="42" t="s">
+      <c r="E42" s="43"/>
+      <c r="F42" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G42" s="43"/>
-      <c r="H42" s="43"/>
-      <c r="I42" s="40"/>
-      <c r="J42" s="41" t="s">
+      <c r="G42" s="46"/>
+      <c r="H42" s="46"/>
+      <c r="I42" s="43"/>
+      <c r="J42" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="44"/>
+      <c r="K42" s="47"/>
     </row>
     <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B43" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C43" s="22"/>
-      <c r="D43" s="24" t="s">
+      <c r="D43" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E43" s="22"/>
       <c r="F43" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
+      <c r="G43" s="28"/>
+      <c r="H43" s="28"/>
       <c r="I43" s="22"/>
-      <c r="J43" s="24" t="s">
+      <c r="J43" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K43" s="25"/>
+      <c r="K43" s="27"/>
     </row>
     <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B44" s="5" t="s">
@@ -2433,93 +2436,93 @@
       <c r="B45" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C45" s="26"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="27"/>
+      <c r="C45" s="29"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="29"/>
+      <c r="F45" s="29"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="29"/>
+      <c r="I45" s="29"/>
+      <c r="J45" s="29"/>
+      <c r="K45" s="30"/>
     </row>
     <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C46" s="28"/>
-      <c r="D46" s="28"/>
-      <c r="E46" s="28"/>
-      <c r="F46" s="28"/>
-      <c r="G46" s="28"/>
-      <c r="H46" s="28"/>
-      <c r="I46" s="28"/>
-      <c r="J46" s="28"/>
-      <c r="K46" s="29"/>
+      <c r="C46" s="31"/>
+      <c r="D46" s="31"/>
+      <c r="E46" s="31"/>
+      <c r="F46" s="31"/>
+      <c r="G46" s="31"/>
+      <c r="H46" s="31"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
+      <c r="K46" s="32"/>
     </row>
     <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B47" s="14"/>
-      <c r="C47" s="28"/>
-      <c r="D47" s="28"/>
-      <c r="E47" s="28"/>
-      <c r="F47" s="28"/>
-      <c r="G47" s="28"/>
-      <c r="H47" s="28"/>
-      <c r="I47" s="28"/>
-      <c r="J47" s="28"/>
-      <c r="K47" s="29"/>
+      <c r="C47" s="31"/>
+      <c r="D47" s="31"/>
+      <c r="E47" s="31"/>
+      <c r="F47" s="31"/>
+      <c r="G47" s="31"/>
+      <c r="H47" s="31"/>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+      <c r="K47" s="32"/>
     </row>
     <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B48" s="14"/>
-      <c r="C48" s="28"/>
-      <c r="D48" s="28"/>
-      <c r="E48" s="28"/>
-      <c r="F48" s="28"/>
-      <c r="G48" s="28"/>
-      <c r="H48" s="28"/>
-      <c r="I48" s="28"/>
-      <c r="J48" s="28"/>
-      <c r="K48" s="29"/>
+      <c r="C48" s="31"/>
+      <c r="D48" s="31"/>
+      <c r="E48" s="31"/>
+      <c r="F48" s="31"/>
+      <c r="G48" s="31"/>
+      <c r="H48" s="31"/>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+      <c r="K48" s="32"/>
     </row>
     <row r="49" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="32"/>
+      <c r="B49" s="33"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="34"/>
+      <c r="K49" s="35"/>
     </row>
     <row r="50" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="34"/>
-      <c r="H50" s="34"/>
-      <c r="I50" s="34"/>
-      <c r="J50" s="34"/>
-      <c r="K50" s="35"/>
+      <c r="C50" s="37"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="37"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="37"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="37"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="38"/>
     </row>
     <row r="51" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B51" s="36" t="s">
+      <c r="B51" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="37"/>
-      <c r="D51" s="37"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="37"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="37"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="37"/>
-      <c r="K51" s="38"/>
+      <c r="C51" s="40"/>
+      <c r="D51" s="40"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="40"/>
+      <c r="H51" s="40"/>
+      <c r="I51" s="40"/>
+      <c r="J51" s="40"/>
+      <c r="K51" s="41"/>
     </row>
     <row r="52" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B52" s="5" t="s">
@@ -2686,83 +2689,83 @@
       <c r="K60" s="13"/>
     </row>
     <row r="61" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B61" s="86" t="s">
+      <c r="B61" s="62" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="87"/>
-      <c r="D61" s="87"/>
-      <c r="E61" s="87"/>
-      <c r="F61" s="87"/>
-      <c r="G61" s="87"/>
-      <c r="H61" s="87"/>
-      <c r="I61" s="87"/>
-      <c r="J61" s="87"/>
-      <c r="K61" s="88"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="63"/>
+      <c r="E61" s="63"/>
+      <c r="F61" s="63"/>
+      <c r="G61" s="63"/>
+      <c r="H61" s="63"/>
+      <c r="I61" s="63"/>
+      <c r="J61" s="63"/>
+      <c r="K61" s="64"/>
     </row>
     <row r="62" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
-      <c r="J62" s="90"/>
-      <c r="K62" s="91"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="66"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="66"/>
+      <c r="F62" s="66"/>
+      <c r="G62" s="66"/>
+      <c r="H62" s="66"/>
+      <c r="I62" s="66"/>
+      <c r="J62" s="66"/>
+      <c r="K62" s="67"/>
     </row>
     <row r="63" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="90"/>
-      <c r="E63" s="90"/>
-      <c r="F63" s="90"/>
-      <c r="G63" s="90"/>
-      <c r="H63" s="90"/>
-      <c r="I63" s="90"/>
-      <c r="J63" s="90"/>
-      <c r="K63" s="91"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+      <c r="I63" s="66"/>
+      <c r="J63" s="66"/>
+      <c r="K63" s="67"/>
     </row>
     <row r="64" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B64" s="92"/>
-      <c r="C64" s="93"/>
-      <c r="D64" s="93"/>
-      <c r="E64" s="93"/>
-      <c r="F64" s="93"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="93"/>
-      <c r="I64" s="93"/>
-      <c r="J64" s="93"/>
-      <c r="K64" s="94"/>
+      <c r="B64" s="68"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+      <c r="G64" s="69"/>
+      <c r="H64" s="69"/>
+      <c r="I64" s="69"/>
+      <c r="J64" s="69"/>
+      <c r="K64" s="70"/>
     </row>
     <row r="65" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="66" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B66" s="46" t="s">
+      <c r="B66" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="C66" s="47"/>
-      <c r="D66" s="47"/>
-      <c r="E66" s="47"/>
-      <c r="F66" s="47"/>
-      <c r="G66" s="47"/>
-      <c r="H66" s="47"/>
-      <c r="I66" s="47"/>
-      <c r="J66" s="47"/>
-      <c r="K66" s="48"/>
+      <c r="C66" s="49"/>
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+      <c r="I66" s="49"/>
+      <c r="J66" s="49"/>
+      <c r="K66" s="50"/>
     </row>
     <row r="67" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B67" s="49" t="s">
+      <c r="B67" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C67" s="50"/>
-      <c r="D67" s="50"/>
-      <c r="E67" s="50"/>
-      <c r="F67" s="50"/>
-      <c r="G67" s="50"/>
-      <c r="H67" s="50"/>
-      <c r="I67" s="50"/>
-      <c r="J67" s="50"/>
-      <c r="K67" s="51"/>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="53"/>
     </row>
     <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
@@ -2815,52 +2818,52 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B72" s="33" t="s">
+      <c r="B72" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C72" s="34"/>
-      <c r="D72" s="52" t="s">
+      <c r="C72" s="37"/>
+      <c r="D72" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E72" s="52"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="54" t="s">
+      <c r="E72" s="54"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H72" s="55"/>
-      <c r="I72" s="56" t="s">
+      <c r="H72" s="57"/>
+      <c r="I72" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="J72" s="56"/>
-      <c r="K72" s="57"/>
+      <c r="J72" s="58"/>
+      <c r="K72" s="59"/>
     </row>
     <row r="73" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B73" s="33" t="s">
+      <c r="B73" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="34"/>
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="35"/>
+      <c r="C73" s="37"/>
+      <c r="D73" s="37"/>
+      <c r="E73" s="37"/>
+      <c r="F73" s="37"/>
+      <c r="G73" s="37"/>
+      <c r="H73" s="37"/>
+      <c r="I73" s="37"/>
+      <c r="J73" s="37"/>
+      <c r="K73" s="38"/>
     </row>
     <row r="74" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B74" s="36" t="s">
+      <c r="B74" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C74" s="58"/>
-      <c r="D74" s="58"/>
-      <c r="E74" s="58"/>
-      <c r="F74" s="58"/>
-      <c r="G74" s="58"/>
-      <c r="H74" s="58"/>
-      <c r="I74" s="58"/>
-      <c r="J74" s="58"/>
-      <c r="K74" s="59"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
+      <c r="E74" s="60"/>
+      <c r="F74" s="60"/>
+      <c r="G74" s="60"/>
+      <c r="H74" s="60"/>
+      <c r="I74" s="60"/>
+      <c r="J74" s="60"/>
+      <c r="K74" s="61"/>
     </row>
     <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B75" s="5" t="s">
@@ -2884,127 +2887,127 @@
       <c r="B76" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C76" s="26"/>
-      <c r="D76" s="26"/>
-      <c r="E76" s="26"/>
-      <c r="F76" s="26"/>
-      <c r="G76" s="26"/>
-      <c r="H76" s="26"/>
-      <c r="I76" s="26"/>
-      <c r="J76" s="26"/>
-      <c r="K76" s="27"/>
+      <c r="C76" s="29"/>
+      <c r="D76" s="29"/>
+      <c r="E76" s="29"/>
+      <c r="F76" s="29"/>
+      <c r="G76" s="29"/>
+      <c r="H76" s="29"/>
+      <c r="I76" s="29"/>
+      <c r="J76" s="29"/>
+      <c r="K76" s="30"/>
     </row>
     <row r="77" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B77" s="39" t="s">
+      <c r="B77" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C77" s="40"/>
-      <c r="D77" s="41" t="s">
+      <c r="C77" s="43"/>
+      <c r="D77" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E77" s="40"/>
-      <c r="F77" s="42" t="s">
+      <c r="E77" s="43"/>
+      <c r="F77" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G77" s="43"/>
-      <c r="H77" s="43"/>
-      <c r="I77" s="40"/>
-      <c r="J77" s="41" t="s">
+      <c r="G77" s="46"/>
+      <c r="H77" s="46"/>
+      <c r="I77" s="43"/>
+      <c r="J77" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K77" s="44"/>
+      <c r="K77" s="47"/>
     </row>
     <row r="78" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B78" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="26"/>
-      <c r="F78" s="26"/>
-      <c r="G78" s="26"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="26"/>
-      <c r="J78" s="26"/>
-      <c r="K78" s="27"/>
+      <c r="C78" s="29"/>
+      <c r="D78" s="29"/>
+      <c r="E78" s="29"/>
+      <c r="F78" s="29"/>
+      <c r="G78" s="29"/>
+      <c r="H78" s="29"/>
+      <c r="I78" s="29"/>
+      <c r="J78" s="29"/>
+      <c r="K78" s="30"/>
     </row>
     <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="28"/>
-      <c r="D79" s="28"/>
-      <c r="E79" s="28"/>
-      <c r="F79" s="28"/>
-      <c r="G79" s="28"/>
-      <c r="H79" s="28"/>
-      <c r="I79" s="28"/>
-      <c r="J79" s="28"/>
-      <c r="K79" s="29"/>
+      <c r="C79" s="31"/>
+      <c r="D79" s="31"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="31"/>
+      <c r="G79" s="31"/>
+      <c r="H79" s="31"/>
+      <c r="I79" s="31"/>
+      <c r="J79" s="31"/>
+      <c r="K79" s="32"/>
     </row>
     <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B80" s="14"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="29"/>
+      <c r="C80" s="31"/>
+      <c r="D80" s="31"/>
+      <c r="E80" s="31"/>
+      <c r="F80" s="31"/>
+      <c r="G80" s="31"/>
+      <c r="H80" s="31"/>
+      <c r="I80" s="31"/>
+      <c r="J80" s="31"/>
+      <c r="K80" s="32"/>
     </row>
     <row r="81" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B81" s="14"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="29"/>
+      <c r="C81" s="31"/>
+      <c r="D81" s="31"/>
+      <c r="E81" s="31"/>
+      <c r="F81" s="31"/>
+      <c r="G81" s="31"/>
+      <c r="H81" s="31"/>
+      <c r="I81" s="31"/>
+      <c r="J81" s="31"/>
+      <c r="K81" s="32"/>
     </row>
     <row r="82" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B82" s="30"/>
-      <c r="C82" s="31"/>
-      <c r="D82" s="31"/>
-      <c r="E82" s="31"/>
-      <c r="F82" s="31"/>
-      <c r="G82" s="31"/>
-      <c r="H82" s="31"/>
-      <c r="I82" s="31"/>
-      <c r="J82" s="31"/>
-      <c r="K82" s="32"/>
+      <c r="B82" s="33"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="34"/>
+      <c r="F82" s="34"/>
+      <c r="G82" s="34"/>
+      <c r="H82" s="34"/>
+      <c r="I82" s="34"/>
+      <c r="J82" s="34"/>
+      <c r="K82" s="35"/>
     </row>
     <row r="83" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="33" t="s">
+      <c r="B83" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C83" s="34"/>
-      <c r="D83" s="34"/>
-      <c r="E83" s="34"/>
-      <c r="F83" s="34"/>
-      <c r="G83" s="34"/>
-      <c r="H83" s="34"/>
-      <c r="I83" s="34"/>
-      <c r="J83" s="34"/>
-      <c r="K83" s="35"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="37"/>
+      <c r="E83" s="37"/>
+      <c r="F83" s="37"/>
+      <c r="G83" s="37"/>
+      <c r="H83" s="37"/>
+      <c r="I83" s="37"/>
+      <c r="J83" s="37"/>
+      <c r="K83" s="38"/>
     </row>
     <row r="84" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B84" s="36" t="s">
+      <c r="B84" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="37"/>
-      <c r="D84" s="37"/>
-      <c r="E84" s="37"/>
-      <c r="F84" s="37"/>
-      <c r="G84" s="37"/>
-      <c r="H84" s="37"/>
-      <c r="I84" s="37"/>
-      <c r="J84" s="37"/>
-      <c r="K84" s="38"/>
+      <c r="C84" s="40"/>
+      <c r="D84" s="40"/>
+      <c r="E84" s="40"/>
+      <c r="F84" s="40"/>
+      <c r="G84" s="40"/>
+      <c r="H84" s="40"/>
+      <c r="I84" s="40"/>
+      <c r="J84" s="40"/>
+      <c r="K84" s="41"/>
     </row>
     <row r="85" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B85" s="5" t="s">
@@ -3209,16 +3212,16 @@
       <c r="K96" s="16"/>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B97" s="80"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="81"/>
-      <c r="E97" s="81"/>
-      <c r="F97" s="81"/>
-      <c r="G97" s="81"/>
-      <c r="H97" s="81"/>
-      <c r="I97" s="81"/>
-      <c r="J97" s="81"/>
-      <c r="K97" s="82"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="75"/>
+      <c r="F97" s="75"/>
+      <c r="G97" s="75"/>
+      <c r="H97" s="75"/>
+      <c r="I97" s="75"/>
+      <c r="J97" s="75"/>
+      <c r="K97" s="76"/>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B98" s="4"/>
@@ -3233,32 +3236,32 @@
       <c r="K98" s="4"/>
     </row>
     <row r="99" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B99" s="83" t="s">
+      <c r="B99" s="71" t="s">
         <v>46</v>
       </c>
-      <c r="C99" s="84"/>
-      <c r="D99" s="84"/>
-      <c r="E99" s="84"/>
-      <c r="F99" s="84"/>
-      <c r="G99" s="84"/>
-      <c r="H99" s="84"/>
-      <c r="I99" s="84"/>
-      <c r="J99" s="84"/>
-      <c r="K99" s="85"/>
+      <c r="C99" s="72"/>
+      <c r="D99" s="72"/>
+      <c r="E99" s="72"/>
+      <c r="F99" s="72"/>
+      <c r="G99" s="72"/>
+      <c r="H99" s="72"/>
+      <c r="I99" s="72"/>
+      <c r="J99" s="72"/>
+      <c r="K99" s="73"/>
     </row>
     <row r="100" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B100" s="49" t="s">
+      <c r="B100" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="50"/>
-      <c r="D100" s="50"/>
-      <c r="E100" s="50"/>
-      <c r="F100" s="50"/>
-      <c r="G100" s="50"/>
-      <c r="H100" s="50"/>
-      <c r="I100" s="50"/>
-      <c r="J100" s="50"/>
-      <c r="K100" s="51"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="53"/>
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B101" s="14" t="s">
@@ -3311,52 +3314,52 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B105" s="33" t="s">
+      <c r="B105" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C105" s="34"/>
-      <c r="D105" s="52" t="s">
+      <c r="C105" s="37"/>
+      <c r="D105" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E105" s="52"/>
-      <c r="F105" s="53"/>
-      <c r="G105" s="54" t="s">
+      <c r="E105" s="54"/>
+      <c r="F105" s="55"/>
+      <c r="G105" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H105" s="55"/>
-      <c r="I105" s="56" t="s">
+      <c r="H105" s="57"/>
+      <c r="I105" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="J105" s="56"/>
-      <c r="K105" s="57"/>
+      <c r="J105" s="58"/>
+      <c r="K105" s="59"/>
     </row>
     <row r="106" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B106" s="33" t="s">
+      <c r="B106" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="34"/>
-      <c r="D106" s="34"/>
-      <c r="E106" s="34"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="34"/>
-      <c r="H106" s="34"/>
-      <c r="I106" s="34"/>
-      <c r="J106" s="34"/>
-      <c r="K106" s="35"/>
+      <c r="C106" s="37"/>
+      <c r="D106" s="37"/>
+      <c r="E106" s="37"/>
+      <c r="F106" s="37"/>
+      <c r="G106" s="37"/>
+      <c r="H106" s="37"/>
+      <c r="I106" s="37"/>
+      <c r="J106" s="37"/>
+      <c r="K106" s="38"/>
     </row>
     <row r="107" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B107" s="36" t="s">
+      <c r="B107" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="58"/>
-      <c r="D107" s="58"/>
-      <c r="E107" s="58"/>
-      <c r="F107" s="58"/>
-      <c r="G107" s="58"/>
-      <c r="H107" s="58"/>
-      <c r="I107" s="58"/>
-      <c r="J107" s="58"/>
-      <c r="K107" s="59"/>
+      <c r="C107" s="60"/>
+      <c r="D107" s="60"/>
+      <c r="E107" s="60"/>
+      <c r="F107" s="60"/>
+      <c r="G107" s="60"/>
+      <c r="H107" s="60"/>
+      <c r="I107" s="60"/>
+      <c r="J107" s="60"/>
+      <c r="K107" s="61"/>
     </row>
     <row r="108" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B108" s="5" t="s">
@@ -3380,147 +3383,147 @@
       <c r="B109" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C109" s="26"/>
-      <c r="D109" s="26"/>
-      <c r="E109" s="26"/>
-      <c r="F109" s="26"/>
-      <c r="G109" s="26"/>
-      <c r="H109" s="26"/>
-      <c r="I109" s="26"/>
-      <c r="J109" s="26"/>
-      <c r="K109" s="27"/>
+      <c r="C109" s="29"/>
+      <c r="D109" s="29"/>
+      <c r="E109" s="29"/>
+      <c r="F109" s="29"/>
+      <c r="G109" s="29"/>
+      <c r="H109" s="29"/>
+      <c r="I109" s="29"/>
+      <c r="J109" s="29"/>
+      <c r="K109" s="30"/>
     </row>
     <row r="110" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="40"/>
-      <c r="D110" s="41" t="s">
+      <c r="C110" s="43"/>
+      <c r="D110" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E110" s="40"/>
-      <c r="F110" s="42" t="s">
+      <c r="E110" s="43"/>
+      <c r="F110" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="40"/>
-      <c r="J110" s="41" t="s">
+      <c r="G110" s="46"/>
+      <c r="H110" s="46"/>
+      <c r="I110" s="43"/>
+      <c r="J110" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K110" s="44"/>
+      <c r="K110" s="47"/>
     </row>
     <row r="111" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B111" s="21" t="s">
         <v>22</v>
       </c>
       <c r="C111" s="22"/>
-      <c r="D111" s="24" t="s">
+      <c r="D111" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E111" s="22"/>
       <c r="F111" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="G111" s="24"/>
-      <c r="H111" s="24"/>
+      <c r="G111" s="28"/>
+      <c r="H111" s="28"/>
       <c r="I111" s="22"/>
-      <c r="J111" s="24" t="s">
+      <c r="J111" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K111" s="25"/>
+      <c r="K111" s="27"/>
     </row>
     <row r="112" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B112" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C112" s="26"/>
-      <c r="D112" s="26"/>
-      <c r="E112" s="26"/>
-      <c r="F112" s="26"/>
-      <c r="G112" s="26"/>
-      <c r="H112" s="26"/>
-      <c r="I112" s="26"/>
-      <c r="J112" s="26"/>
-      <c r="K112" s="27"/>
+      <c r="C112" s="29"/>
+      <c r="D112" s="29"/>
+      <c r="E112" s="29"/>
+      <c r="F112" s="29"/>
+      <c r="G112" s="29"/>
+      <c r="H112" s="29"/>
+      <c r="I112" s="29"/>
+      <c r="J112" s="29"/>
+      <c r="K112" s="30"/>
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B113" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C113" s="28"/>
-      <c r="D113" s="28"/>
-      <c r="E113" s="28"/>
-      <c r="F113" s="28"/>
-      <c r="G113" s="28"/>
-      <c r="H113" s="28"/>
-      <c r="I113" s="28"/>
-      <c r="J113" s="28"/>
-      <c r="K113" s="29"/>
+      <c r="C113" s="31"/>
+      <c r="D113" s="31"/>
+      <c r="E113" s="31"/>
+      <c r="F113" s="31"/>
+      <c r="G113" s="31"/>
+      <c r="H113" s="31"/>
+      <c r="I113" s="31"/>
+      <c r="J113" s="31"/>
+      <c r="K113" s="32"/>
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B114" s="14"/>
-      <c r="C114" s="28"/>
-      <c r="D114" s="28"/>
-      <c r="E114" s="28"/>
-      <c r="F114" s="28"/>
-      <c r="G114" s="28"/>
-      <c r="H114" s="28"/>
-      <c r="I114" s="28"/>
-      <c r="J114" s="28"/>
-      <c r="K114" s="29"/>
+      <c r="C114" s="31"/>
+      <c r="D114" s="31"/>
+      <c r="E114" s="31"/>
+      <c r="F114" s="31"/>
+      <c r="G114" s="31"/>
+      <c r="H114" s="31"/>
+      <c r="I114" s="31"/>
+      <c r="J114" s="31"/>
+      <c r="K114" s="32"/>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B115" s="14"/>
-      <c r="C115" s="28"/>
-      <c r="D115" s="28"/>
-      <c r="E115" s="28"/>
-      <c r="F115" s="28"/>
-      <c r="G115" s="28"/>
-      <c r="H115" s="28"/>
-      <c r="I115" s="28"/>
-      <c r="J115" s="28"/>
-      <c r="K115" s="29"/>
+      <c r="C115" s="31"/>
+      <c r="D115" s="31"/>
+      <c r="E115" s="31"/>
+      <c r="F115" s="31"/>
+      <c r="G115" s="31"/>
+      <c r="H115" s="31"/>
+      <c r="I115" s="31"/>
+      <c r="J115" s="31"/>
+      <c r="K115" s="32"/>
     </row>
     <row r="116" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B116" s="30"/>
-      <c r="C116" s="31"/>
-      <c r="D116" s="31"/>
-      <c r="E116" s="31"/>
-      <c r="F116" s="31"/>
-      <c r="G116" s="31"/>
-      <c r="H116" s="31"/>
-      <c r="I116" s="31"/>
-      <c r="J116" s="31"/>
-      <c r="K116" s="32"/>
+      <c r="B116" s="33"/>
+      <c r="C116" s="34"/>
+      <c r="D116" s="34"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="34"/>
+      <c r="J116" s="34"/>
+      <c r="K116" s="35"/>
     </row>
     <row r="117" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B117" s="33" t="s">
+      <c r="B117" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C117" s="34"/>
-      <c r="D117" s="34"/>
-      <c r="E117" s="34"/>
-      <c r="F117" s="34"/>
-      <c r="G117" s="34"/>
-      <c r="H117" s="34"/>
-      <c r="I117" s="34"/>
-      <c r="J117" s="34"/>
-      <c r="K117" s="35"/>
+      <c r="C117" s="37"/>
+      <c r="D117" s="37"/>
+      <c r="E117" s="37"/>
+      <c r="F117" s="37"/>
+      <c r="G117" s="37"/>
+      <c r="H117" s="37"/>
+      <c r="I117" s="37"/>
+      <c r="J117" s="37"/>
+      <c r="K117" s="38"/>
     </row>
     <row r="118" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B118" s="36" t="s">
+      <c r="B118" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C118" s="37"/>
-      <c r="D118" s="37"/>
-      <c r="E118" s="37"/>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-      <c r="I118" s="37"/>
-      <c r="J118" s="37"/>
-      <c r="K118" s="38"/>
+      <c r="C118" s="40"/>
+      <c r="D118" s="40"/>
+      <c r="E118" s="40"/>
+      <c r="F118" s="40"/>
+      <c r="G118" s="40"/>
+      <c r="H118" s="40"/>
+      <c r="I118" s="40"/>
+      <c r="J118" s="40"/>
+      <c r="K118" s="41"/>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B119" s="5" t="s">
@@ -3698,32 +3701,32 @@
     </row>
     <row r="130" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="131" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B131" s="46" t="s">
+      <c r="B131" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C131" s="47"/>
-      <c r="D131" s="47"/>
-      <c r="E131" s="47"/>
-      <c r="F131" s="47"/>
-      <c r="G131" s="47"/>
-      <c r="H131" s="47"/>
-      <c r="I131" s="47"/>
-      <c r="J131" s="47"/>
-      <c r="K131" s="48"/>
+      <c r="C131" s="49"/>
+      <c r="D131" s="49"/>
+      <c r="E131" s="49"/>
+      <c r="F131" s="49"/>
+      <c r="G131" s="49"/>
+      <c r="H131" s="49"/>
+      <c r="I131" s="49"/>
+      <c r="J131" s="49"/>
+      <c r="K131" s="50"/>
     </row>
     <row r="132" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B132" s="49" t="s">
+      <c r="B132" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C132" s="50"/>
-      <c r="D132" s="50"/>
-      <c r="E132" s="50"/>
-      <c r="F132" s="50"/>
-      <c r="G132" s="50"/>
-      <c r="H132" s="50"/>
-      <c r="I132" s="50"/>
-      <c r="J132" s="50"/>
-      <c r="K132" s="51"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="53"/>
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B133" s="14" t="s">
@@ -3776,52 +3779,52 @@
       <c r="K136" s="20"/>
     </row>
     <row r="137" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B137" s="33" t="s">
+      <c r="B137" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C137" s="34"/>
-      <c r="D137" s="52" t="s">
+      <c r="C137" s="37"/>
+      <c r="D137" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E137" s="52"/>
-      <c r="F137" s="53"/>
-      <c r="G137" s="54" t="s">
+      <c r="E137" s="54"/>
+      <c r="F137" s="55"/>
+      <c r="G137" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H137" s="55"/>
-      <c r="I137" s="56" t="s">
+      <c r="H137" s="57"/>
+      <c r="I137" s="58" t="s">
         <v>54</v>
       </c>
-      <c r="J137" s="56"/>
-      <c r="K137" s="57"/>
+      <c r="J137" s="58"/>
+      <c r="K137" s="59"/>
     </row>
     <row r="138" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B138" s="33" t="s">
+      <c r="B138" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C138" s="34"/>
-      <c r="D138" s="34"/>
-      <c r="E138" s="34"/>
-      <c r="F138" s="34"/>
-      <c r="G138" s="34"/>
-      <c r="H138" s="34"/>
-      <c r="I138" s="34"/>
-      <c r="J138" s="34"/>
-      <c r="K138" s="35"/>
+      <c r="C138" s="37"/>
+      <c r="D138" s="37"/>
+      <c r="E138" s="37"/>
+      <c r="F138" s="37"/>
+      <c r="G138" s="37"/>
+      <c r="H138" s="37"/>
+      <c r="I138" s="37"/>
+      <c r="J138" s="37"/>
+      <c r="K138" s="38"/>
     </row>
     <row r="139" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B139" s="36" t="s">
+      <c r="B139" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C139" s="58"/>
-      <c r="D139" s="58"/>
-      <c r="E139" s="58"/>
-      <c r="F139" s="58"/>
-      <c r="G139" s="58"/>
-      <c r="H139" s="58"/>
-      <c r="I139" s="58"/>
-      <c r="J139" s="58"/>
-      <c r="K139" s="59"/>
+      <c r="C139" s="60"/>
+      <c r="D139" s="60"/>
+      <c r="E139" s="60"/>
+      <c r="F139" s="60"/>
+      <c r="G139" s="60"/>
+      <c r="H139" s="60"/>
+      <c r="I139" s="60"/>
+      <c r="J139" s="60"/>
+      <c r="K139" s="61"/>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B140" s="5" t="s">
@@ -3845,147 +3848,147 @@
       <c r="B141" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="26"/>
-      <c r="D141" s="26"/>
-      <c r="E141" s="26"/>
-      <c r="F141" s="26"/>
-      <c r="G141" s="26"/>
-      <c r="H141" s="26"/>
-      <c r="I141" s="26"/>
-      <c r="J141" s="26"/>
-      <c r="K141" s="27"/>
+      <c r="C141" s="29"/>
+      <c r="D141" s="29"/>
+      <c r="E141" s="29"/>
+      <c r="F141" s="29"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="30"/>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C142" s="40"/>
-      <c r="D142" s="41" t="s">
+      <c r="C142" s="43"/>
+      <c r="D142" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E142" s="40"/>
-      <c r="F142" s="42" t="s">
+      <c r="E142" s="43"/>
+      <c r="F142" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G142" s="43"/>
-      <c r="H142" s="43"/>
-      <c r="I142" s="40"/>
-      <c r="J142" s="41" t="s">
+      <c r="G142" s="46"/>
+      <c r="H142" s="46"/>
+      <c r="I142" s="43"/>
+      <c r="J142" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K142" s="44"/>
+      <c r="K142" s="47"/>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B143" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C143" s="22"/>
-      <c r="D143" s="24" t="s">
+      <c r="D143" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E143" s="22"/>
-      <c r="F143" s="45" t="s">
+      <c r="F143" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="G143" s="24"/>
-      <c r="H143" s="24"/>
+      <c r="G143" s="28"/>
+      <c r="H143" s="28"/>
       <c r="I143" s="22"/>
-      <c r="J143" s="24" t="s">
+      <c r="J143" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K143" s="25"/>
+      <c r="K143" s="27"/>
     </row>
     <row r="144" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B144" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C144" s="26"/>
-      <c r="D144" s="26"/>
-      <c r="E144" s="26"/>
-      <c r="F144" s="26"/>
-      <c r="G144" s="26"/>
-      <c r="H144" s="26"/>
-      <c r="I144" s="26"/>
-      <c r="J144" s="26"/>
-      <c r="K144" s="27"/>
+      <c r="C144" s="29"/>
+      <c r="D144" s="29"/>
+      <c r="E144" s="29"/>
+      <c r="F144" s="29"/>
+      <c r="G144" s="29"/>
+      <c r="H144" s="29"/>
+      <c r="I144" s="29"/>
+      <c r="J144" s="29"/>
+      <c r="K144" s="30"/>
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B145" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C145" s="28"/>
-      <c r="D145" s="28"/>
-      <c r="E145" s="28"/>
-      <c r="F145" s="28"/>
-      <c r="G145" s="28"/>
-      <c r="H145" s="28"/>
-      <c r="I145" s="28"/>
-      <c r="J145" s="28"/>
-      <c r="K145" s="29"/>
+      <c r="C145" s="31"/>
+      <c r="D145" s="31"/>
+      <c r="E145" s="31"/>
+      <c r="F145" s="31"/>
+      <c r="G145" s="31"/>
+      <c r="H145" s="31"/>
+      <c r="I145" s="31"/>
+      <c r="J145" s="31"/>
+      <c r="K145" s="32"/>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B146" s="14"/>
-      <c r="C146" s="28"/>
-      <c r="D146" s="28"/>
-      <c r="E146" s="28"/>
-      <c r="F146" s="28"/>
-      <c r="G146" s="28"/>
-      <c r="H146" s="28"/>
-      <c r="I146" s="28"/>
-      <c r="J146" s="28"/>
-      <c r="K146" s="29"/>
+      <c r="C146" s="31"/>
+      <c r="D146" s="31"/>
+      <c r="E146" s="31"/>
+      <c r="F146" s="31"/>
+      <c r="G146" s="31"/>
+      <c r="H146" s="31"/>
+      <c r="I146" s="31"/>
+      <c r="J146" s="31"/>
+      <c r="K146" s="32"/>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B147" s="14"/>
-      <c r="C147" s="28"/>
-      <c r="D147" s="28"/>
-      <c r="E147" s="28"/>
-      <c r="F147" s="28"/>
-      <c r="G147" s="28"/>
-      <c r="H147" s="28"/>
-      <c r="I147" s="28"/>
-      <c r="J147" s="28"/>
-      <c r="K147" s="29"/>
+      <c r="C147" s="31"/>
+      <c r="D147" s="31"/>
+      <c r="E147" s="31"/>
+      <c r="F147" s="31"/>
+      <c r="G147" s="31"/>
+      <c r="H147" s="31"/>
+      <c r="I147" s="31"/>
+      <c r="J147" s="31"/>
+      <c r="K147" s="32"/>
     </row>
     <row r="148" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B148" s="30"/>
-      <c r="C148" s="31"/>
-      <c r="D148" s="31"/>
-      <c r="E148" s="31"/>
-      <c r="F148" s="31"/>
-      <c r="G148" s="31"/>
-      <c r="H148" s="31"/>
-      <c r="I148" s="31"/>
-      <c r="J148" s="31"/>
-      <c r="K148" s="32"/>
+      <c r="B148" s="33"/>
+      <c r="C148" s="34"/>
+      <c r="D148" s="34"/>
+      <c r="E148" s="34"/>
+      <c r="F148" s="34"/>
+      <c r="G148" s="34"/>
+      <c r="H148" s="34"/>
+      <c r="I148" s="34"/>
+      <c r="J148" s="34"/>
+      <c r="K148" s="35"/>
     </row>
     <row r="149" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B149" s="33" t="s">
+      <c r="B149" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C149" s="34"/>
-      <c r="D149" s="34"/>
-      <c r="E149" s="34"/>
-      <c r="F149" s="34"/>
-      <c r="G149" s="34"/>
-      <c r="H149" s="34"/>
-      <c r="I149" s="34"/>
-      <c r="J149" s="34"/>
-      <c r="K149" s="35"/>
+      <c r="C149" s="37"/>
+      <c r="D149" s="37"/>
+      <c r="E149" s="37"/>
+      <c r="F149" s="37"/>
+      <c r="G149" s="37"/>
+      <c r="H149" s="37"/>
+      <c r="I149" s="37"/>
+      <c r="J149" s="37"/>
+      <c r="K149" s="38"/>
     </row>
     <row r="150" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B150" s="36" t="s">
+      <c r="B150" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C150" s="37"/>
-      <c r="D150" s="37"/>
-      <c r="E150" s="37"/>
-      <c r="F150" s="37"/>
-      <c r="G150" s="37"/>
-      <c r="H150" s="37"/>
-      <c r="I150" s="37"/>
-      <c r="J150" s="37"/>
-      <c r="K150" s="38"/>
+      <c r="C150" s="40"/>
+      <c r="D150" s="40"/>
+      <c r="E150" s="40"/>
+      <c r="F150" s="40"/>
+      <c r="G150" s="40"/>
+      <c r="H150" s="40"/>
+      <c r="I150" s="40"/>
+      <c r="J150" s="40"/>
+      <c r="K150" s="41"/>
     </row>
     <row r="151" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B151" s="5" t="s">
@@ -4163,32 +4166,32 @@
     </row>
     <row r="162" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="163" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B163" s="46" t="s">
+      <c r="B163" s="48" t="s">
         <v>58</v>
       </c>
-      <c r="C163" s="47"/>
-      <c r="D163" s="47"/>
-      <c r="E163" s="47"/>
-      <c r="F163" s="47"/>
-      <c r="G163" s="47"/>
-      <c r="H163" s="47"/>
-      <c r="I163" s="47"/>
-      <c r="J163" s="47"/>
-      <c r="K163" s="48"/>
+      <c r="C163" s="49"/>
+      <c r="D163" s="49"/>
+      <c r="E163" s="49"/>
+      <c r="F163" s="49"/>
+      <c r="G163" s="49"/>
+      <c r="H163" s="49"/>
+      <c r="I163" s="49"/>
+      <c r="J163" s="49"/>
+      <c r="K163" s="50"/>
     </row>
     <row r="164" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B164" s="49" t="s">
+      <c r="B164" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C164" s="50"/>
-      <c r="D164" s="50"/>
-      <c r="E164" s="50"/>
-      <c r="F164" s="50"/>
-      <c r="G164" s="50"/>
-      <c r="H164" s="50"/>
-      <c r="I164" s="50"/>
-      <c r="J164" s="50"/>
-      <c r="K164" s="51"/>
+      <c r="C164" s="52"/>
+      <c r="D164" s="52"/>
+      <c r="E164" s="52"/>
+      <c r="F164" s="52"/>
+      <c r="G164" s="52"/>
+      <c r="H164" s="52"/>
+      <c r="I164" s="52"/>
+      <c r="J164" s="52"/>
+      <c r="K164" s="53"/>
     </row>
     <row r="165" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B165" s="14" t="s">
@@ -4241,52 +4244,52 @@
       <c r="K168" s="20"/>
     </row>
     <row r="169" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B169" s="33" t="s">
+      <c r="B169" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C169" s="34"/>
-      <c r="D169" s="52" t="s">
+      <c r="C169" s="37"/>
+      <c r="D169" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E169" s="52"/>
-      <c r="F169" s="53"/>
-      <c r="G169" s="54" t="s">
+      <c r="E169" s="54"/>
+      <c r="F169" s="55"/>
+      <c r="G169" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H169" s="55"/>
-      <c r="I169" s="56" t="s">
+      <c r="H169" s="57"/>
+      <c r="I169" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="J169" s="56"/>
-      <c r="K169" s="57"/>
+      <c r="J169" s="58"/>
+      <c r="K169" s="59"/>
     </row>
     <row r="170" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B170" s="33" t="s">
+      <c r="B170" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C170" s="34"/>
-      <c r="D170" s="34"/>
-      <c r="E170" s="34"/>
-      <c r="F170" s="34"/>
-      <c r="G170" s="34"/>
-      <c r="H170" s="34"/>
-      <c r="I170" s="34"/>
-      <c r="J170" s="34"/>
-      <c r="K170" s="35"/>
+      <c r="C170" s="37"/>
+      <c r="D170" s="37"/>
+      <c r="E170" s="37"/>
+      <c r="F170" s="37"/>
+      <c r="G170" s="37"/>
+      <c r="H170" s="37"/>
+      <c r="I170" s="37"/>
+      <c r="J170" s="37"/>
+      <c r="K170" s="38"/>
     </row>
     <row r="171" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B171" s="36" t="s">
+      <c r="B171" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C171" s="58"/>
-      <c r="D171" s="58"/>
-      <c r="E171" s="58"/>
-      <c r="F171" s="58"/>
-      <c r="G171" s="58"/>
-      <c r="H171" s="58"/>
-      <c r="I171" s="58"/>
-      <c r="J171" s="58"/>
-      <c r="K171" s="59"/>
+      <c r="C171" s="60"/>
+      <c r="D171" s="60"/>
+      <c r="E171" s="60"/>
+      <c r="F171" s="60"/>
+      <c r="G171" s="60"/>
+      <c r="H171" s="60"/>
+      <c r="I171" s="60"/>
+      <c r="J171" s="60"/>
+      <c r="K171" s="61"/>
     </row>
     <row r="172" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B172" s="5" t="s">
@@ -4310,55 +4313,55 @@
       <c r="B173" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="26"/>
-      <c r="D173" s="26"/>
-      <c r="E173" s="26"/>
-      <c r="F173" s="26"/>
-      <c r="G173" s="26"/>
-      <c r="H173" s="26"/>
-      <c r="I173" s="26"/>
-      <c r="J173" s="26"/>
-      <c r="K173" s="27"/>
+      <c r="C173" s="29"/>
+      <c r="D173" s="29"/>
+      <c r="E173" s="29"/>
+      <c r="F173" s="29"/>
+      <c r="G173" s="29"/>
+      <c r="H173" s="29"/>
+      <c r="I173" s="29"/>
+      <c r="J173" s="29"/>
+      <c r="K173" s="30"/>
     </row>
     <row r="174" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B174" s="39" t="s">
+      <c r="B174" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C174" s="40"/>
-      <c r="D174" s="41" t="s">
+      <c r="C174" s="43"/>
+      <c r="D174" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E174" s="40"/>
-      <c r="F174" s="42" t="s">
+      <c r="E174" s="43"/>
+      <c r="F174" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G174" s="43"/>
-      <c r="H174" s="43"/>
-      <c r="I174" s="40"/>
-      <c r="J174" s="41" t="s">
+      <c r="G174" s="46"/>
+      <c r="H174" s="46"/>
+      <c r="I174" s="43"/>
+      <c r="J174" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K174" s="44"/>
+      <c r="K174" s="47"/>
     </row>
     <row r="175" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B175" s="21" t="s">
         <v>55</v>
       </c>
       <c r="C175" s="22"/>
-      <c r="D175" s="24" t="s">
+      <c r="D175" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E175" s="22"/>
-      <c r="F175" s="45" t="s">
+      <c r="F175" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="G175" s="24"/>
-      <c r="H175" s="24"/>
+      <c r="G175" s="28"/>
+      <c r="H175" s="28"/>
       <c r="I175" s="22"/>
-      <c r="J175" s="24" t="s">
+      <c r="J175" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K175" s="25"/>
+      <c r="K175" s="27"/>
     </row>
     <row r="176" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B176" s="21" t="s">
@@ -4372,105 +4375,105 @@
       <c r="F176" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G176" s="24"/>
-      <c r="H176" s="24"/>
+      <c r="G176" s="28"/>
+      <c r="H176" s="28"/>
       <c r="I176" s="22"/>
       <c r="J176" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="K176" s="25"/>
+      <c r="K176" s="27"/>
     </row>
     <row r="177" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B177" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C177" s="26"/>
-      <c r="D177" s="26"/>
-      <c r="E177" s="26"/>
-      <c r="F177" s="26"/>
-      <c r="G177" s="26"/>
-      <c r="H177" s="26"/>
-      <c r="I177" s="26"/>
-      <c r="J177" s="26"/>
-      <c r="K177" s="27"/>
+      <c r="C177" s="29"/>
+      <c r="D177" s="29"/>
+      <c r="E177" s="29"/>
+      <c r="F177" s="29"/>
+      <c r="G177" s="29"/>
+      <c r="H177" s="29"/>
+      <c r="I177" s="29"/>
+      <c r="J177" s="29"/>
+      <c r="K177" s="30"/>
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B178" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C178" s="28"/>
-      <c r="D178" s="28"/>
-      <c r="E178" s="28"/>
-      <c r="F178" s="28"/>
-      <c r="G178" s="28"/>
-      <c r="H178" s="28"/>
-      <c r="I178" s="28"/>
-      <c r="J178" s="28"/>
-      <c r="K178" s="29"/>
+      <c r="C178" s="31"/>
+      <c r="D178" s="31"/>
+      <c r="E178" s="31"/>
+      <c r="F178" s="31"/>
+      <c r="G178" s="31"/>
+      <c r="H178" s="31"/>
+      <c r="I178" s="31"/>
+      <c r="J178" s="31"/>
+      <c r="K178" s="32"/>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B179" s="14"/>
-      <c r="C179" s="28"/>
-      <c r="D179" s="28"/>
-      <c r="E179" s="28"/>
-      <c r="F179" s="28"/>
-      <c r="G179" s="28"/>
-      <c r="H179" s="28"/>
-      <c r="I179" s="28"/>
-      <c r="J179" s="28"/>
-      <c r="K179" s="29"/>
+      <c r="C179" s="31"/>
+      <c r="D179" s="31"/>
+      <c r="E179" s="31"/>
+      <c r="F179" s="31"/>
+      <c r="G179" s="31"/>
+      <c r="H179" s="31"/>
+      <c r="I179" s="31"/>
+      <c r="J179" s="31"/>
+      <c r="K179" s="32"/>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B180" s="14"/>
-      <c r="C180" s="28"/>
-      <c r="D180" s="28"/>
-      <c r="E180" s="28"/>
-      <c r="F180" s="28"/>
-      <c r="G180" s="28"/>
-      <c r="H180" s="28"/>
-      <c r="I180" s="28"/>
-      <c r="J180" s="28"/>
-      <c r="K180" s="29"/>
+      <c r="C180" s="31"/>
+      <c r="D180" s="31"/>
+      <c r="E180" s="31"/>
+      <c r="F180" s="31"/>
+      <c r="G180" s="31"/>
+      <c r="H180" s="31"/>
+      <c r="I180" s="31"/>
+      <c r="J180" s="31"/>
+      <c r="K180" s="32"/>
     </row>
     <row r="181" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B181" s="30"/>
-      <c r="C181" s="31"/>
-      <c r="D181" s="31"/>
-      <c r="E181" s="31"/>
-      <c r="F181" s="31"/>
-      <c r="G181" s="31"/>
-      <c r="H181" s="31"/>
-      <c r="I181" s="31"/>
-      <c r="J181" s="31"/>
-      <c r="K181" s="32"/>
+      <c r="B181" s="33"/>
+      <c r="C181" s="34"/>
+      <c r="D181" s="34"/>
+      <c r="E181" s="34"/>
+      <c r="F181" s="34"/>
+      <c r="G181" s="34"/>
+      <c r="H181" s="34"/>
+      <c r="I181" s="34"/>
+      <c r="J181" s="34"/>
+      <c r="K181" s="35"/>
     </row>
     <row r="182" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B182" s="33" t="s">
+      <c r="B182" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C182" s="34"/>
-      <c r="D182" s="34"/>
-      <c r="E182" s="34"/>
-      <c r="F182" s="34"/>
-      <c r="G182" s="34"/>
-      <c r="H182" s="34"/>
-      <c r="I182" s="34"/>
-      <c r="J182" s="34"/>
-      <c r="K182" s="35"/>
+      <c r="C182" s="37"/>
+      <c r="D182" s="37"/>
+      <c r="E182" s="37"/>
+      <c r="F182" s="37"/>
+      <c r="G182" s="37"/>
+      <c r="H182" s="37"/>
+      <c r="I182" s="37"/>
+      <c r="J182" s="37"/>
+      <c r="K182" s="38"/>
     </row>
     <row r="183" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B183" s="36" t="s">
+      <c r="B183" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C183" s="37"/>
-      <c r="D183" s="37"/>
-      <c r="E183" s="37"/>
-      <c r="F183" s="37"/>
-      <c r="G183" s="37"/>
-      <c r="H183" s="37"/>
-      <c r="I183" s="37"/>
-      <c r="J183" s="37"/>
-      <c r="K183" s="38"/>
+      <c r="C183" s="40"/>
+      <c r="D183" s="40"/>
+      <c r="E183" s="40"/>
+      <c r="F183" s="40"/>
+      <c r="G183" s="40"/>
+      <c r="H183" s="40"/>
+      <c r="I183" s="40"/>
+      <c r="J183" s="40"/>
+      <c r="K183" s="41"/>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B184" s="5" t="s">
@@ -4648,32 +4651,32 @@
     </row>
     <row r="195" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="196" spans="2:11" ht="41.25" x14ac:dyDescent="0.3">
-      <c r="B196" s="46" t="s">
+      <c r="B196" s="48" t="s">
         <v>68</v>
       </c>
-      <c r="C196" s="47"/>
-      <c r="D196" s="47"/>
-      <c r="E196" s="47"/>
-      <c r="F196" s="47"/>
-      <c r="G196" s="47"/>
-      <c r="H196" s="47"/>
-      <c r="I196" s="47"/>
-      <c r="J196" s="47"/>
-      <c r="K196" s="48"/>
+      <c r="C196" s="49"/>
+      <c r="D196" s="49"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="49"/>
+      <c r="G196" s="49"/>
+      <c r="H196" s="49"/>
+      <c r="I196" s="49"/>
+      <c r="J196" s="49"/>
+      <c r="K196" s="50"/>
     </row>
     <row r="197" spans="2:11" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B197" s="49" t="s">
+      <c r="B197" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="C197" s="50"/>
-      <c r="D197" s="50"/>
-      <c r="E197" s="50"/>
-      <c r="F197" s="50"/>
-      <c r="G197" s="50"/>
-      <c r="H197" s="50"/>
-      <c r="I197" s="50"/>
-      <c r="J197" s="50"/>
-      <c r="K197" s="51"/>
+      <c r="C197" s="52"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="52"/>
+      <c r="F197" s="52"/>
+      <c r="G197" s="52"/>
+      <c r="H197" s="52"/>
+      <c r="I197" s="52"/>
+      <c r="J197" s="52"/>
+      <c r="K197" s="53"/>
     </row>
     <row r="198" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B198" s="14" t="s">
@@ -4726,52 +4729,52 @@
       <c r="K201" s="20"/>
     </row>
     <row r="202" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B202" s="33" t="s">
+      <c r="B202" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="C202" s="34"/>
-      <c r="D202" s="52" t="s">
+      <c r="C202" s="37"/>
+      <c r="D202" s="54" t="s">
         <v>18</v>
       </c>
-      <c r="E202" s="52"/>
-      <c r="F202" s="53"/>
-      <c r="G202" s="54" t="s">
+      <c r="E202" s="54"/>
+      <c r="F202" s="55"/>
+      <c r="G202" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="H202" s="55"/>
-      <c r="I202" s="56" t="s">
+      <c r="H202" s="57"/>
+      <c r="I202" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="J202" s="56"/>
-      <c r="K202" s="57"/>
+      <c r="J202" s="58"/>
+      <c r="K202" s="59"/>
     </row>
     <row r="203" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B203" s="33" t="s">
+      <c r="B203" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="C203" s="34"/>
-      <c r="D203" s="34"/>
-      <c r="E203" s="34"/>
-      <c r="F203" s="34"/>
-      <c r="G203" s="34"/>
-      <c r="H203" s="34"/>
-      <c r="I203" s="34"/>
-      <c r="J203" s="34"/>
-      <c r="K203" s="35"/>
+      <c r="C203" s="37"/>
+      <c r="D203" s="37"/>
+      <c r="E203" s="37"/>
+      <c r="F203" s="37"/>
+      <c r="G203" s="37"/>
+      <c r="H203" s="37"/>
+      <c r="I203" s="37"/>
+      <c r="J203" s="37"/>
+      <c r="K203" s="38"/>
     </row>
     <row r="204" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B204" s="36" t="s">
+      <c r="B204" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C204" s="58"/>
-      <c r="D204" s="58"/>
-      <c r="E204" s="58"/>
-      <c r="F204" s="58"/>
-      <c r="G204" s="58"/>
-      <c r="H204" s="58"/>
-      <c r="I204" s="58"/>
-      <c r="J204" s="58"/>
-      <c r="K204" s="59"/>
+      <c r="C204" s="60"/>
+      <c r="D204" s="60"/>
+      <c r="E204" s="60"/>
+      <c r="F204" s="60"/>
+      <c r="G204" s="60"/>
+      <c r="H204" s="60"/>
+      <c r="I204" s="60"/>
+      <c r="J204" s="60"/>
+      <c r="K204" s="61"/>
     </row>
     <row r="205" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B205" s="5" t="s">
@@ -4795,55 +4798,55 @@
       <c r="B206" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C206" s="26"/>
-      <c r="D206" s="26"/>
-      <c r="E206" s="26"/>
-      <c r="F206" s="26"/>
-      <c r="G206" s="26"/>
-      <c r="H206" s="26"/>
-      <c r="I206" s="26"/>
-      <c r="J206" s="26"/>
-      <c r="K206" s="27"/>
+      <c r="C206" s="29"/>
+      <c r="D206" s="29"/>
+      <c r="E206" s="29"/>
+      <c r="F206" s="29"/>
+      <c r="G206" s="29"/>
+      <c r="H206" s="29"/>
+      <c r="I206" s="29"/>
+      <c r="J206" s="29"/>
+      <c r="K206" s="30"/>
     </row>
     <row r="207" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B207" s="39" t="s">
+      <c r="B207" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="C207" s="40"/>
-      <c r="D207" s="41" t="s">
+      <c r="C207" s="43"/>
+      <c r="D207" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="E207" s="40"/>
-      <c r="F207" s="42" t="s">
+      <c r="E207" s="43"/>
+      <c r="F207" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="G207" s="43"/>
-      <c r="H207" s="43"/>
-      <c r="I207" s="40"/>
-      <c r="J207" s="41" t="s">
+      <c r="G207" s="46"/>
+      <c r="H207" s="46"/>
+      <c r="I207" s="43"/>
+      <c r="J207" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="K207" s="44"/>
+      <c r="K207" s="47"/>
     </row>
     <row r="208" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B208" s="21" t="s">
         <v>75</v>
       </c>
       <c r="C208" s="22"/>
-      <c r="D208" s="24" t="s">
+      <c r="D208" s="28" t="s">
         <v>23</v>
       </c>
       <c r="E208" s="22"/>
-      <c r="F208" s="45" t="s">
+      <c r="F208" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="G208" s="24"/>
-      <c r="H208" s="24"/>
+      <c r="G208" s="28"/>
+      <c r="H208" s="28"/>
       <c r="I208" s="22"/>
-      <c r="J208" s="24" t="s">
+      <c r="J208" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="K208" s="25"/>
+      <c r="K208" s="27"/>
     </row>
     <row r="209" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B209" s="21" t="s">
@@ -4854,16 +4857,16 @@
         <v>23</v>
       </c>
       <c r="E209" s="22"/>
-      <c r="F209" s="45" t="s">
+      <c r="F209" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="G209" s="95"/>
-      <c r="H209" s="95"/>
-      <c r="I209" s="96"/>
+      <c r="G209" s="25"/>
+      <c r="H209" s="25"/>
+      <c r="I209" s="26"/>
       <c r="J209" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K209" s="25"/>
+      <c r="K209" s="27"/>
     </row>
     <row r="210" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B210" s="21" t="s">
@@ -4874,16 +4877,16 @@
         <v>72</v>
       </c>
       <c r="E210" s="22"/>
-      <c r="F210" s="45" t="s">
+      <c r="F210" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="G210" s="95"/>
-      <c r="H210" s="95"/>
-      <c r="I210" s="96"/>
+      <c r="G210" s="25"/>
+      <c r="H210" s="25"/>
+      <c r="I210" s="26"/>
       <c r="J210" s="23" t="s">
         <v>76</v>
       </c>
-      <c r="K210" s="25"/>
+      <c r="K210" s="27"/>
     </row>
     <row r="211" spans="2:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B211" s="21" t="s">
@@ -4897,105 +4900,105 @@
       <c r="F211" s="23" t="s">
         <v>65</v>
       </c>
-      <c r="G211" s="24"/>
-      <c r="H211" s="24"/>
+      <c r="G211" s="28"/>
+      <c r="H211" s="28"/>
       <c r="I211" s="22"/>
       <c r="J211" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="K211" s="25"/>
+      <c r="K211" s="27"/>
     </row>
     <row r="212" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
       <c r="B212" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C212" s="26"/>
-      <c r="D212" s="26"/>
-      <c r="E212" s="26"/>
-      <c r="F212" s="26"/>
-      <c r="G212" s="26"/>
-      <c r="H212" s="26"/>
-      <c r="I212" s="26"/>
-      <c r="J212" s="26"/>
-      <c r="K212" s="27"/>
+      <c r="C212" s="29"/>
+      <c r="D212" s="29"/>
+      <c r="E212" s="29"/>
+      <c r="F212" s="29"/>
+      <c r="G212" s="29"/>
+      <c r="H212" s="29"/>
+      <c r="I212" s="29"/>
+      <c r="J212" s="29"/>
+      <c r="K212" s="30"/>
     </row>
     <row r="213" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B213" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="C213" s="28"/>
-      <c r="D213" s="28"/>
-      <c r="E213" s="28"/>
-      <c r="F213" s="28"/>
-      <c r="G213" s="28"/>
-      <c r="H213" s="28"/>
-      <c r="I213" s="28"/>
-      <c r="J213" s="28"/>
-      <c r="K213" s="29"/>
+      <c r="C213" s="31"/>
+      <c r="D213" s="31"/>
+      <c r="E213" s="31"/>
+      <c r="F213" s="31"/>
+      <c r="G213" s="31"/>
+      <c r="H213" s="31"/>
+      <c r="I213" s="31"/>
+      <c r="J213" s="31"/>
+      <c r="K213" s="32"/>
     </row>
     <row r="214" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B214" s="14"/>
-      <c r="C214" s="28"/>
-      <c r="D214" s="28"/>
-      <c r="E214" s="28"/>
-      <c r="F214" s="28"/>
-      <c r="G214" s="28"/>
-      <c r="H214" s="28"/>
-      <c r="I214" s="28"/>
-      <c r="J214" s="28"/>
-      <c r="K214" s="29"/>
+      <c r="C214" s="31"/>
+      <c r="D214" s="31"/>
+      <c r="E214" s="31"/>
+      <c r="F214" s="31"/>
+      <c r="G214" s="31"/>
+      <c r="H214" s="31"/>
+      <c r="I214" s="31"/>
+      <c r="J214" s="31"/>
+      <c r="K214" s="32"/>
     </row>
     <row r="215" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B215" s="14"/>
-      <c r="C215" s="28"/>
-      <c r="D215" s="28"/>
-      <c r="E215" s="28"/>
-      <c r="F215" s="28"/>
-      <c r="G215" s="28"/>
-      <c r="H215" s="28"/>
-      <c r="I215" s="28"/>
-      <c r="J215" s="28"/>
-      <c r="K215" s="29"/>
+      <c r="C215" s="31"/>
+      <c r="D215" s="31"/>
+      <c r="E215" s="31"/>
+      <c r="F215" s="31"/>
+      <c r="G215" s="31"/>
+      <c r="H215" s="31"/>
+      <c r="I215" s="31"/>
+      <c r="J215" s="31"/>
+      <c r="K215" s="32"/>
     </row>
     <row r="216" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B216" s="30"/>
-      <c r="C216" s="31"/>
-      <c r="D216" s="31"/>
-      <c r="E216" s="31"/>
-      <c r="F216" s="31"/>
-      <c r="G216" s="31"/>
-      <c r="H216" s="31"/>
-      <c r="I216" s="31"/>
-      <c r="J216" s="31"/>
-      <c r="K216" s="32"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="34"/>
+      <c r="D216" s="34"/>
+      <c r="E216" s="34"/>
+      <c r="F216" s="34"/>
+      <c r="G216" s="34"/>
+      <c r="H216" s="34"/>
+      <c r="I216" s="34"/>
+      <c r="J216" s="34"/>
+      <c r="K216" s="35"/>
     </row>
     <row r="217" spans="2:11" ht="27" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B217" s="33" t="s">
+      <c r="B217" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C217" s="34"/>
-      <c r="D217" s="34"/>
-      <c r="E217" s="34"/>
-      <c r="F217" s="34"/>
-      <c r="G217" s="34"/>
-      <c r="H217" s="34"/>
-      <c r="I217" s="34"/>
-      <c r="J217" s="34"/>
-      <c r="K217" s="35"/>
+      <c r="C217" s="37"/>
+      <c r="D217" s="37"/>
+      <c r="E217" s="37"/>
+      <c r="F217" s="37"/>
+      <c r="G217" s="37"/>
+      <c r="H217" s="37"/>
+      <c r="I217" s="37"/>
+      <c r="J217" s="37"/>
+      <c r="K217" s="38"/>
     </row>
     <row r="218" spans="2:11" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="B218" s="36" t="s">
+      <c r="B218" s="39" t="s">
         <v>3</v>
       </c>
-      <c r="C218" s="37"/>
-      <c r="D218" s="37"/>
-      <c r="E218" s="37"/>
-      <c r="F218" s="37"/>
-      <c r="G218" s="37"/>
-      <c r="H218" s="37"/>
-      <c r="I218" s="37"/>
-      <c r="J218" s="37"/>
-      <c r="K218" s="38"/>
+      <c r="C218" s="40"/>
+      <c r="D218" s="40"/>
+      <c r="E218" s="40"/>
+      <c r="F218" s="40"/>
+      <c r="G218" s="40"/>
+      <c r="H218" s="40"/>
+      <c r="I218" s="40"/>
+      <c r="J218" s="40"/>
+      <c r="K218" s="41"/>
     </row>
     <row r="219" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B219" s="5" t="s">
@@ -5173,6 +5176,295 @@
     </row>
   </sheetData>
   <mergeCells count="313">
+    <mergeCell ref="B189:C189"/>
+    <mergeCell ref="D189:E189"/>
+    <mergeCell ref="F189:I189"/>
+    <mergeCell ref="J189:K189"/>
+    <mergeCell ref="B190:K190"/>
+    <mergeCell ref="B191:K194"/>
+    <mergeCell ref="B176:C176"/>
+    <mergeCell ref="D176:E176"/>
+    <mergeCell ref="F176:I176"/>
+    <mergeCell ref="J176:K176"/>
+    <mergeCell ref="B186:K186"/>
+    <mergeCell ref="B187:C187"/>
+    <mergeCell ref="D187:E187"/>
+    <mergeCell ref="F187:I187"/>
+    <mergeCell ref="J187:K187"/>
+    <mergeCell ref="B188:C188"/>
+    <mergeCell ref="D188:E188"/>
+    <mergeCell ref="F188:I188"/>
+    <mergeCell ref="J188:K188"/>
+    <mergeCell ref="B177:K177"/>
+    <mergeCell ref="B178:K181"/>
+    <mergeCell ref="B182:K182"/>
+    <mergeCell ref="B183:K183"/>
+    <mergeCell ref="B184:C184"/>
+    <mergeCell ref="D184:I184"/>
+    <mergeCell ref="J184:K184"/>
+    <mergeCell ref="B185:C185"/>
+    <mergeCell ref="D185:I185"/>
+    <mergeCell ref="J185:K185"/>
+    <mergeCell ref="B172:C172"/>
+    <mergeCell ref="D172:I172"/>
+    <mergeCell ref="J172:K172"/>
+    <mergeCell ref="B173:K173"/>
+    <mergeCell ref="B174:C174"/>
+    <mergeCell ref="D174:E174"/>
+    <mergeCell ref="F174:I174"/>
+    <mergeCell ref="J174:K174"/>
+    <mergeCell ref="B175:C175"/>
+    <mergeCell ref="D175:E175"/>
+    <mergeCell ref="F175:I175"/>
+    <mergeCell ref="J175:K175"/>
+    <mergeCell ref="B163:K163"/>
+    <mergeCell ref="B164:K164"/>
+    <mergeCell ref="B165:K168"/>
+    <mergeCell ref="B169:C169"/>
+    <mergeCell ref="D169:F169"/>
+    <mergeCell ref="G169:H169"/>
+    <mergeCell ref="I169:K169"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B171:K171"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="B4:K28"/>
+    <mergeCell ref="J43:K43"/>
+    <mergeCell ref="B31:K31"/>
+    <mergeCell ref="B32:K32"/>
+    <mergeCell ref="B33:K36"/>
+    <mergeCell ref="D40:I40"/>
+    <mergeCell ref="B41:K41"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="I37:K37"/>
+    <mergeCell ref="B38:K38"/>
+    <mergeCell ref="B39:K39"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="D57:E57"/>
+    <mergeCell ref="F57:I57"/>
+    <mergeCell ref="J57:K57"/>
+    <mergeCell ref="B51:K51"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:I42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:E44"/>
+    <mergeCell ref="F44:I44"/>
+    <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B45:K45"/>
+    <mergeCell ref="B46:K49"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:E43"/>
+    <mergeCell ref="F43:I43"/>
+    <mergeCell ref="B50:K50"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="B53:C53"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="D56:E56"/>
+    <mergeCell ref="F56:I56"/>
+    <mergeCell ref="J56:K56"/>
+    <mergeCell ref="B66:K66"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B60:K60"/>
+    <mergeCell ref="B54:K54"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="B58:C58"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:I58"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="B52:C52"/>
+    <mergeCell ref="D52:I52"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="B78:K78"/>
+    <mergeCell ref="B79:K82"/>
+    <mergeCell ref="B83:K83"/>
+    <mergeCell ref="B84:K84"/>
+    <mergeCell ref="B85:C85"/>
+    <mergeCell ref="D85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B77:C77"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="B68:K71"/>
+    <mergeCell ref="B72:C72"/>
+    <mergeCell ref="D72:F72"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="I72:K72"/>
+    <mergeCell ref="B73:K73"/>
+    <mergeCell ref="B74:K74"/>
+    <mergeCell ref="B75:C75"/>
+    <mergeCell ref="D75:I75"/>
+    <mergeCell ref="B89:C89"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="B90:C90"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="F90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="B86:C86"/>
+    <mergeCell ref="D86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:C88"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="B93:K93"/>
+    <mergeCell ref="B94:K97"/>
+    <mergeCell ref="B91:C91"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="F91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="B92:C92"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="F110:I110"/>
+    <mergeCell ref="J110:K110"/>
+    <mergeCell ref="B111:C111"/>
+    <mergeCell ref="D111:E111"/>
+    <mergeCell ref="F111:I111"/>
+    <mergeCell ref="J111:K111"/>
+    <mergeCell ref="B99:K99"/>
+    <mergeCell ref="B100:K100"/>
+    <mergeCell ref="B101:K104"/>
+    <mergeCell ref="B105:C105"/>
+    <mergeCell ref="D105:F105"/>
+    <mergeCell ref="G105:H105"/>
+    <mergeCell ref="I105:K105"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B107:K107"/>
+    <mergeCell ref="B108:C108"/>
+    <mergeCell ref="D108:I108"/>
+    <mergeCell ref="J108:K108"/>
+    <mergeCell ref="B109:K109"/>
+    <mergeCell ref="B110:C110"/>
+    <mergeCell ref="B61:K64"/>
+    <mergeCell ref="B131:K131"/>
+    <mergeCell ref="B132:K132"/>
+    <mergeCell ref="B133:K136"/>
+    <mergeCell ref="B137:C137"/>
+    <mergeCell ref="D137:F137"/>
+    <mergeCell ref="G137:H137"/>
+    <mergeCell ref="I137:K137"/>
+    <mergeCell ref="B120:C120"/>
+    <mergeCell ref="D120:I120"/>
+    <mergeCell ref="J120:K120"/>
+    <mergeCell ref="B121:K121"/>
+    <mergeCell ref="B122:C122"/>
+    <mergeCell ref="D122:E122"/>
+    <mergeCell ref="F122:I122"/>
+    <mergeCell ref="J122:K122"/>
+    <mergeCell ref="B113:K116"/>
+    <mergeCell ref="B117:K117"/>
+    <mergeCell ref="B118:K118"/>
+    <mergeCell ref="B119:C119"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="J119:K119"/>
+    <mergeCell ref="B112:K112"/>
+    <mergeCell ref="D110:E110"/>
+    <mergeCell ref="B123:C123"/>
+    <mergeCell ref="D123:E123"/>
+    <mergeCell ref="F123:I123"/>
+    <mergeCell ref="J123:K123"/>
+    <mergeCell ref="B124:C124"/>
+    <mergeCell ref="D124:E124"/>
+    <mergeCell ref="F124:I124"/>
+    <mergeCell ref="J124:K124"/>
+    <mergeCell ref="B126:K129"/>
+    <mergeCell ref="B142:C142"/>
+    <mergeCell ref="D142:E142"/>
+    <mergeCell ref="F142:I142"/>
+    <mergeCell ref="J142:K142"/>
+    <mergeCell ref="B143:C143"/>
+    <mergeCell ref="D143:E143"/>
+    <mergeCell ref="F143:I143"/>
+    <mergeCell ref="J143:K143"/>
+    <mergeCell ref="B125:K125"/>
+    <mergeCell ref="B138:K138"/>
+    <mergeCell ref="B139:K139"/>
+    <mergeCell ref="B140:C140"/>
+    <mergeCell ref="D140:I140"/>
+    <mergeCell ref="J140:K140"/>
+    <mergeCell ref="B141:K141"/>
+    <mergeCell ref="B152:C152"/>
+    <mergeCell ref="D152:I152"/>
+    <mergeCell ref="J152:K152"/>
+    <mergeCell ref="B153:K153"/>
+    <mergeCell ref="B154:C154"/>
+    <mergeCell ref="D154:E154"/>
+    <mergeCell ref="F154:I154"/>
+    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="B144:K144"/>
+    <mergeCell ref="B145:K148"/>
+    <mergeCell ref="B149:K149"/>
+    <mergeCell ref="B150:K150"/>
+    <mergeCell ref="B151:C151"/>
+    <mergeCell ref="D151:I151"/>
+    <mergeCell ref="J151:K151"/>
+    <mergeCell ref="B157:K157"/>
+    <mergeCell ref="B158:K161"/>
+    <mergeCell ref="B155:C155"/>
+    <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:I155"/>
+    <mergeCell ref="J155:K155"/>
+    <mergeCell ref="B156:C156"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:I156"/>
+    <mergeCell ref="J156:K156"/>
+    <mergeCell ref="B196:K196"/>
+    <mergeCell ref="B197:K197"/>
+    <mergeCell ref="B198:K201"/>
+    <mergeCell ref="B202:C202"/>
+    <mergeCell ref="D202:F202"/>
+    <mergeCell ref="G202:H202"/>
+    <mergeCell ref="I202:K202"/>
+    <mergeCell ref="B203:K203"/>
+    <mergeCell ref="B204:K204"/>
+    <mergeCell ref="B205:C205"/>
+    <mergeCell ref="D205:I205"/>
+    <mergeCell ref="J205:K205"/>
+    <mergeCell ref="B206:K206"/>
+    <mergeCell ref="B207:C207"/>
+    <mergeCell ref="D207:E207"/>
+    <mergeCell ref="F207:I207"/>
+    <mergeCell ref="J207:K207"/>
+    <mergeCell ref="B208:C208"/>
+    <mergeCell ref="D208:E208"/>
+    <mergeCell ref="F208:I208"/>
+    <mergeCell ref="J208:K208"/>
+    <mergeCell ref="F223:I223"/>
+    <mergeCell ref="J223:K223"/>
+    <mergeCell ref="B211:C211"/>
+    <mergeCell ref="D211:E211"/>
+    <mergeCell ref="F211:I211"/>
+    <mergeCell ref="J211:K211"/>
+    <mergeCell ref="B212:K212"/>
+    <mergeCell ref="B213:K216"/>
+    <mergeCell ref="B217:K217"/>
+    <mergeCell ref="B218:K218"/>
+    <mergeCell ref="B219:C219"/>
+    <mergeCell ref="D219:I219"/>
+    <mergeCell ref="J219:K219"/>
     <mergeCell ref="B224:C224"/>
     <mergeCell ref="D224:E224"/>
     <mergeCell ref="F224:I224"/>
@@ -5197,298 +5489,17 @@
     <mergeCell ref="J222:K222"/>
     <mergeCell ref="B223:C223"/>
     <mergeCell ref="D223:E223"/>
-    <mergeCell ref="F223:I223"/>
-    <mergeCell ref="J223:K223"/>
-    <mergeCell ref="B211:C211"/>
-    <mergeCell ref="D211:E211"/>
-    <mergeCell ref="F211:I211"/>
-    <mergeCell ref="J211:K211"/>
-    <mergeCell ref="B212:K212"/>
-    <mergeCell ref="B213:K216"/>
-    <mergeCell ref="B217:K217"/>
-    <mergeCell ref="B218:K218"/>
-    <mergeCell ref="B219:C219"/>
-    <mergeCell ref="D219:I219"/>
-    <mergeCell ref="J219:K219"/>
-    <mergeCell ref="B205:C205"/>
-    <mergeCell ref="D205:I205"/>
-    <mergeCell ref="J205:K205"/>
-    <mergeCell ref="B206:K206"/>
-    <mergeCell ref="B207:C207"/>
-    <mergeCell ref="D207:E207"/>
-    <mergeCell ref="F207:I207"/>
-    <mergeCell ref="J207:K207"/>
-    <mergeCell ref="B208:C208"/>
-    <mergeCell ref="D208:E208"/>
-    <mergeCell ref="F208:I208"/>
-    <mergeCell ref="J208:K208"/>
-    <mergeCell ref="B196:K196"/>
-    <mergeCell ref="B197:K197"/>
-    <mergeCell ref="B198:K201"/>
-    <mergeCell ref="B202:C202"/>
-    <mergeCell ref="D202:F202"/>
-    <mergeCell ref="G202:H202"/>
-    <mergeCell ref="I202:K202"/>
-    <mergeCell ref="B203:K203"/>
-    <mergeCell ref="B204:K204"/>
-    <mergeCell ref="B157:K157"/>
-    <mergeCell ref="B158:K161"/>
-    <mergeCell ref="B155:C155"/>
-    <mergeCell ref="D155:E155"/>
-    <mergeCell ref="F155:I155"/>
-    <mergeCell ref="J155:K155"/>
-    <mergeCell ref="B156:C156"/>
-    <mergeCell ref="D156:E156"/>
-    <mergeCell ref="F156:I156"/>
-    <mergeCell ref="J156:K156"/>
-    <mergeCell ref="B152:C152"/>
-    <mergeCell ref="D152:I152"/>
-    <mergeCell ref="J152:K152"/>
-    <mergeCell ref="B153:K153"/>
-    <mergeCell ref="B154:C154"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="F154:I154"/>
-    <mergeCell ref="J154:K154"/>
-    <mergeCell ref="B144:K144"/>
-    <mergeCell ref="B145:K148"/>
-    <mergeCell ref="B149:K149"/>
-    <mergeCell ref="B150:K150"/>
-    <mergeCell ref="B151:C151"/>
-    <mergeCell ref="D151:I151"/>
-    <mergeCell ref="J151:K151"/>
-    <mergeCell ref="B142:C142"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="F142:I142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="B143:C143"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="F143:I143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="B125:K125"/>
-    <mergeCell ref="B138:K138"/>
-    <mergeCell ref="B139:K139"/>
-    <mergeCell ref="B140:C140"/>
-    <mergeCell ref="D140:I140"/>
-    <mergeCell ref="J140:K140"/>
-    <mergeCell ref="B141:K141"/>
-    <mergeCell ref="B123:C123"/>
-    <mergeCell ref="D123:E123"/>
-    <mergeCell ref="F123:I123"/>
-    <mergeCell ref="J123:K123"/>
-    <mergeCell ref="B124:C124"/>
-    <mergeCell ref="D124:E124"/>
-    <mergeCell ref="F124:I124"/>
-    <mergeCell ref="J124:K124"/>
-    <mergeCell ref="B126:K129"/>
-    <mergeCell ref="B61:K64"/>
-    <mergeCell ref="B131:K131"/>
-    <mergeCell ref="B132:K132"/>
-    <mergeCell ref="B133:K136"/>
-    <mergeCell ref="B137:C137"/>
-    <mergeCell ref="D137:F137"/>
-    <mergeCell ref="G137:H137"/>
-    <mergeCell ref="I137:K137"/>
-    <mergeCell ref="B120:C120"/>
-    <mergeCell ref="D120:I120"/>
-    <mergeCell ref="J120:K120"/>
-    <mergeCell ref="B121:K121"/>
-    <mergeCell ref="B122:C122"/>
-    <mergeCell ref="D122:E122"/>
-    <mergeCell ref="F122:I122"/>
-    <mergeCell ref="J122:K122"/>
-    <mergeCell ref="B113:K116"/>
-    <mergeCell ref="B117:K117"/>
-    <mergeCell ref="B118:K118"/>
-    <mergeCell ref="B119:C119"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="J119:K119"/>
-    <mergeCell ref="B112:K112"/>
-    <mergeCell ref="D110:E110"/>
-    <mergeCell ref="F110:I110"/>
-    <mergeCell ref="J110:K110"/>
-    <mergeCell ref="B111:C111"/>
-    <mergeCell ref="D111:E111"/>
-    <mergeCell ref="F111:I111"/>
-    <mergeCell ref="J111:K111"/>
-    <mergeCell ref="B99:K99"/>
-    <mergeCell ref="B100:K100"/>
-    <mergeCell ref="B101:K104"/>
-    <mergeCell ref="B105:C105"/>
-    <mergeCell ref="D105:F105"/>
-    <mergeCell ref="G105:H105"/>
-    <mergeCell ref="I105:K105"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B107:K107"/>
-    <mergeCell ref="B108:C108"/>
-    <mergeCell ref="D108:I108"/>
-    <mergeCell ref="J108:K108"/>
-    <mergeCell ref="B109:K109"/>
-    <mergeCell ref="B110:C110"/>
-    <mergeCell ref="B93:K93"/>
-    <mergeCell ref="B94:K97"/>
-    <mergeCell ref="B91:C91"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="F91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="B92:C92"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="B89:C89"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="B90:C90"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="F90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="B86:C86"/>
-    <mergeCell ref="D86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:C88"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="B52:C52"/>
-    <mergeCell ref="D52:I52"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="B78:K78"/>
-    <mergeCell ref="B79:K82"/>
-    <mergeCell ref="B83:K83"/>
-    <mergeCell ref="B84:K84"/>
-    <mergeCell ref="B85:C85"/>
-    <mergeCell ref="D85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B77:C77"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="B68:K71"/>
-    <mergeCell ref="B72:C72"/>
-    <mergeCell ref="D72:F72"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="I72:K72"/>
-    <mergeCell ref="B73:K73"/>
-    <mergeCell ref="B74:K74"/>
-    <mergeCell ref="B75:C75"/>
-    <mergeCell ref="D75:I75"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="B53:C53"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="D56:E56"/>
-    <mergeCell ref="F56:I56"/>
-    <mergeCell ref="J56:K56"/>
-    <mergeCell ref="B66:K66"/>
-    <mergeCell ref="B67:K67"/>
-    <mergeCell ref="B60:K60"/>
-    <mergeCell ref="B54:K54"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="B58:C58"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:I58"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="D57:E57"/>
-    <mergeCell ref="F57:I57"/>
-    <mergeCell ref="J57:K57"/>
-    <mergeCell ref="B51:K51"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:I42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="D44:E44"/>
-    <mergeCell ref="F44:I44"/>
-    <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B45:K45"/>
-    <mergeCell ref="B46:K49"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="D43:E43"/>
-    <mergeCell ref="F43:I43"/>
-    <mergeCell ref="B50:K50"/>
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="B4:K28"/>
-    <mergeCell ref="J43:K43"/>
-    <mergeCell ref="B31:K31"/>
-    <mergeCell ref="B32:K32"/>
-    <mergeCell ref="B33:K36"/>
-    <mergeCell ref="D40:I40"/>
-    <mergeCell ref="B41:K41"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="I37:K37"/>
-    <mergeCell ref="B38:K38"/>
-    <mergeCell ref="B39:K39"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="B163:K163"/>
-    <mergeCell ref="B164:K164"/>
-    <mergeCell ref="B165:K168"/>
-    <mergeCell ref="B169:C169"/>
-    <mergeCell ref="D169:F169"/>
-    <mergeCell ref="G169:H169"/>
-    <mergeCell ref="I169:K169"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B171:K171"/>
-    <mergeCell ref="D184:I184"/>
-    <mergeCell ref="J184:K184"/>
-    <mergeCell ref="B185:C185"/>
-    <mergeCell ref="D185:I185"/>
-    <mergeCell ref="J185:K185"/>
-    <mergeCell ref="B172:C172"/>
-    <mergeCell ref="D172:I172"/>
-    <mergeCell ref="J172:K172"/>
-    <mergeCell ref="B173:K173"/>
-    <mergeCell ref="B174:C174"/>
-    <mergeCell ref="D174:E174"/>
-    <mergeCell ref="F174:I174"/>
-    <mergeCell ref="J174:K174"/>
-    <mergeCell ref="B175:C175"/>
-    <mergeCell ref="D175:E175"/>
-    <mergeCell ref="F175:I175"/>
-    <mergeCell ref="J175:K175"/>
-    <mergeCell ref="B189:C189"/>
-    <mergeCell ref="D189:E189"/>
-    <mergeCell ref="F189:I189"/>
-    <mergeCell ref="J189:K189"/>
-    <mergeCell ref="B190:K190"/>
-    <mergeCell ref="B191:K194"/>
-    <mergeCell ref="B176:C176"/>
-    <mergeCell ref="D176:E176"/>
-    <mergeCell ref="F176:I176"/>
-    <mergeCell ref="J176:K176"/>
-    <mergeCell ref="B186:K186"/>
-    <mergeCell ref="B187:C187"/>
-    <mergeCell ref="D187:E187"/>
-    <mergeCell ref="F187:I187"/>
-    <mergeCell ref="J187:K187"/>
-    <mergeCell ref="B188:C188"/>
-    <mergeCell ref="D188:E188"/>
-    <mergeCell ref="F188:I188"/>
-    <mergeCell ref="J188:K188"/>
-    <mergeCell ref="B177:K177"/>
-    <mergeCell ref="B178:K181"/>
-    <mergeCell ref="B182:K182"/>
-    <mergeCell ref="B183:K183"/>
-    <mergeCell ref="B184:C184"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="74" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <rowBreaks count="6" manualBreakCount="6">
+    <brk id="29" max="16383" man="1"/>
+    <brk id="64" max="16383" man="1"/>
+    <brk id="97" max="16383" man="1"/>
+    <brk id="129" max="11" man="1"/>
+    <brk id="161" max="11" man="1"/>
+    <brk id="194" max="11" man="1"/>
+  </rowBreaks>
 </worksheet>
 </file>